--- a/3_output/tablas/gse_tables/middle_ajust_soci.xlsx
+++ b/3_output/tablas/gse_tables/middle_ajust_soci.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>38.89519593947625</v>
+        <v>38.89709689126903</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.8908193359549353</v>
+        <v>0.8908077380277711</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.06431688040340391</v>
+        <v>0.06432029640518398</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.3076953804527958</v>
+        <v>0.3077168631248534</v>
       </c>
     </row>
   </sheetData>

--- a/3_output/tablas/gse_tables/middle_ajust_soci.xlsx
+++ b/3_output/tablas/gse_tables/middle_ajust_soci.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>38.89709689126903</v>
+        <v>40.58309320251647</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.8908077380277711</v>
+        <v>0.8795435681171132</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.06432029640518398</v>
+        <v>0.06744566910968465</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.3077168631248534</v>
+        <v>0.3070608153926984</v>
       </c>
     </row>
   </sheetData>
